--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3035080.924146523</v>
+        <v>3131750.900630897</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>75.30729779173555</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>181.5313849740271</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>200.4661980682387</v>
       </c>
       <c r="V4" t="n">
-        <v>163.4435927426892</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>108.8074282022286</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>123.153332579991</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.18663114486746</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>184.7297159062663</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>337.9463874884739</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>172.2570984134028</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.80917175829518</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>45.37452257140335</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>50.18870648718772</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>140.2822090234276</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>81.42785695279176</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,19 +2058,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>215.027676378438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>187.4330611973841</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>18.79983676747869</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>37.68696780390566</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>192.5179931784137</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>40.51264062004665</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>13.02719212039631</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>200.7576543181543</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>20.59954299565299</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>73.11206506387242</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>131.5730391207948</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>99.36052454570022</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>88.75345835954747</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>209.567519332071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292603</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>96.42228968410093</v>
       </c>
       <c r="D43" t="n">
-        <v>17.15794421524278</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -3955,10 +3957,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292626</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247757</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734101046</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>137.9722389061814</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112.426648284105</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>1112.426648284105</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>1112.426648284105</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1112.426648284105</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>701.4407434944976</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>283.4769353926845</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.426648284105</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,16 +4424,16 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2169.853036130063</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>2482.860667836385</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>2482.860667836385</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>2317.766129712456</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>2317.766129712456</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2587.242597884658</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2368.607930856721</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2368.607930856721</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2368.607930856721</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>196.757719530874</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>196.757719530874</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>196.757719530874</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>196.757719530874</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>196.757719530874</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>196.757719530874</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>512.1163924274641</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>512.1163924274641</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="D8" t="n">
-        <v>1551.447402037877</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4832,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2304.517354885837</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2304.517354885837</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1951.748699615723</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1951.748699615723</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1561.609367639912</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,10 +4895,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>706.0995177839138</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>557.9528592180977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>557.9528592180977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>557.9528592180977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>557.9528592180977</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>557.9528592180977</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5356891811371</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5356891811371</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5356891811371</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5042,19 +5044,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3641.993171584094</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5066,16 +5068,16 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
@@ -5121,10 +5123,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>460.1767209741892</v>
+        <v>636.1104853224374</v>
       </c>
       <c r="C13" t="n">
-        <v>460.1767209741892</v>
+        <v>636.1104853224374</v>
       </c>
       <c r="D13" t="n">
-        <v>460.1767209741892</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E13" t="n">
-        <v>460.1767209741892</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F13" t="n">
-        <v>460.1767209741892</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>292.4738843489081</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>146.2566975667659</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5227,22 +5229,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.376021052697</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W13" t="n">
-        <v>908.9588510157366</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X13" t="n">
-        <v>680.9693001177193</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y13" t="n">
-        <v>460.1767209741892</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5272,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5279,19 +5281,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>901.0652231938166</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1352.099436442225</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>818.1148797149126</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C16" t="n">
-        <v>649.1786967870057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>649.1786967870057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.65758193153</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>1509.973093725643</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.555923688682</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X16" t="n">
-        <v>1220.555923688682</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y16" t="n">
-        <v>999.7633445451523</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,22 +5518,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
         <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N17" t="n">
-        <v>2883.993034926781</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5546,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5592,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>788.7380053244393</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>970.386470154679</v>
       </c>
       <c r="Y19" t="n">
-        <v>264.4972173763014</v>
+        <v>970.386470154679</v>
       </c>
     </row>
     <row r="20">
@@ -5750,22 +5752,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N20" t="n">
-        <v>2883.993034926781</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O20" t="n">
-        <v>3763.957685256236</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107236</v>
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3084.972127388693</v>
+        <v>3644.341121778307</v>
       </c>
       <c r="C22" t="n">
-        <v>3084.972127388693</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="D22" t="n">
-        <v>3084.972127388693</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="E22" t="n">
-        <v>3084.972127388693</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F22" t="n">
-        <v>3084.972127388693</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I22" t="n">
         <v>2917.269290763412</v>
@@ -5932,28 +5934,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>4588.725397977919</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>4366.958782547445</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="U22" t="n">
-        <v>4077.855915673088</v>
+        <v>4207.432514129719</v>
       </c>
       <c r="V22" t="n">
-        <v>3823.171427467201</v>
+        <v>3952.748025923832</v>
       </c>
       <c r="W22" t="n">
-        <v>3533.754257430241</v>
+        <v>3663.330855886871</v>
       </c>
       <c r="X22" t="n">
-        <v>3305.764706532223</v>
+        <v>3644.341121778307</v>
       </c>
       <c r="Y22" t="n">
-        <v>3084.972127388693</v>
+        <v>3644.341121778307</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5968,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2584.171204687567</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6020,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
@@ -6069,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>511.9395339702917</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6172,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1504.823322254687</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1250.1388340488</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>960.7216640118392</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>732.7321131138218</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>511.9395339702917</v>
       </c>
     </row>
     <row r="26">
@@ -6230,13 +6232,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1352.099436442224</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272053</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O26" t="n">
         <v>3757.39320666029</v>
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6309,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.8310435707792</v>
+        <v>657.5961351655762</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8948606428723</v>
+        <v>657.5961351655762</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7782212305366</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305366</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6409,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1480.364505316923</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U28" t="n">
-        <v>1191.261638442566</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V28" t="n">
-        <v>1191.261638442566</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.261638442566</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2720875445491</v>
+        <v>1060.037179139346</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.479508401019</v>
+        <v>839.244599995816</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6442,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089264</v>
@@ -6461,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1472.533259768727</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2006.065164440651</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6543,10 +6545,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.336921276364</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="C31" t="n">
-        <v>854.4007383484569</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D31" t="n">
-        <v>704.2840989361212</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E31" t="n">
         <v>556.371005353728</v>
@@ -6643,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1943.184686185112</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1943.184686185112</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.767516148151</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.777965250134</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.985386106604</v>
+        <v>706.4876447660638</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6679,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1404.507041060941</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2383.057343890769</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N32" t="n">
-        <v>3362.809616117416</v>
+        <v>3515.905934867957</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996753</v>
+        <v>4018.878405747294</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6725,25 +6727,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.5459590456827</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="C34" t="n">
-        <v>801.6097761177758</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>284.0714902612037</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>284.0714902612037</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>116.3686536359227</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6889,19 +6891,19 @@
         <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1674.827124689058</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V34" t="n">
-        <v>1674.827124689058</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W34" t="n">
-        <v>1600.97655391747</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X34" t="n">
-        <v>1372.987003019452</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y34" t="n">
-        <v>1152.194423875922</v>
+        <v>613.6330486738366</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7047,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>673.3827746590082</v>
+        <v>3794.457761190642</v>
       </c>
       <c r="C37" t="n">
-        <v>673.3827746590082</v>
+        <v>3625.521578262736</v>
       </c>
       <c r="D37" t="n">
-        <v>523.2661352466724</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="E37" t="n">
-        <v>375.3530416642793</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F37" t="n">
-        <v>228.463094166369</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G37" t="n">
-        <v>228.463094166369</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>4297.262971372191</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>4196.898805164413</v>
       </c>
       <c r="W37" t="n">
-        <v>901.3723255570255</v>
+        <v>4196.898805164413</v>
       </c>
       <c r="X37" t="n">
-        <v>673.3827746590082</v>
+        <v>4196.898805164413</v>
       </c>
       <c r="Y37" t="n">
-        <v>673.3827746590082</v>
+        <v>3976.106226020882</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>919.9473678912366</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1784.466183544591</v>
       </c>
       <c r="M38" t="n">
-        <v>2782.232616025903</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N38" t="n">
-        <v>3573.001456870721</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7284,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>872.9694874534971</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>652.176908309967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7397,40 +7399,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7442,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3031.92622472814</v>
+        <v>754.3196266559706</v>
       </c>
       <c r="C43" t="n">
-        <v>3031.92622472814</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D43" t="n">
-        <v>3014.594967945066</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E43" t="n">
-        <v>3014.594967945066</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F43" t="n">
-        <v>3014.594967945066</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>3014.594967945066</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>3014.594967945066</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>3985.665898699244</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>3730.981410493358</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W43" t="n">
-        <v>3441.564240456397</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X43" t="n">
-        <v>3213.57468955838</v>
+        <v>935.9680914862104</v>
       </c>
       <c r="Y43" t="n">
-        <v>3213.57468955838</v>
+        <v>935.9680914862104</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
@@ -7634,37 +7636,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074192</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972645</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1482.778354750618</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580445</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.08092980709</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686425</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043603</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7679,19 +7681,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7710,43 +7712,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193578</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320222</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454344</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008798</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426851</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>637.1336314069202</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>637.1336314069202</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>487.0169919945845</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300492</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442057</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927013</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931526</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.657581931526</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1475.55471505717</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1336.188817172138</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>1046.771647135177</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>818.78209623716</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.9043113423046</v>
+        <v>818.78209623716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8927,13 +8929,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>285.6623071682325</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>315.167921710932</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9176,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>374.169394802195</v>
+        <v>161.8544041422916</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9410,13 +9412,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>148.4180109385399</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>315.167921710931</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,13 +9646,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>404.500299237039</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,16 +9880,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>285.6623071682317</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>229.1155640189926</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>83.16722118949332</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>338.5992815305711</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10364,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>57.6722444472374</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>295.4822118493973</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>229.1543674071818</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>135.6385654278961</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>246.454569480844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>133.2530576400351</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>134.4574576105339</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.16371392265037</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>52.77216054947225</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>6.151753623141587</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>85.81896414583608</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.556976973656759</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.335964134057747</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.9098186215585</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>248.5248704017072</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>27.03095609775545</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>185.1970147689905</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>273.1846460852166</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>17.8269990339405</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>124.1554719186678</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>213.4109332727186</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>13.18197579352596</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>152.7771187781278</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>91.07852182238983</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>16.14213605696619</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>70.8245314145269</v>
       </c>
       <c r="D43" t="n">
-        <v>131.4575288029696</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.9321526700475</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>114.1654044176466</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>735573.9104639816</v>
+        <v>735573.9104639814</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>735573.9104639816</v>
+        <v>735573.9104639817</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="F2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="H2" t="n">
+        <v>675039.0377078712</v>
+      </c>
+      <c r="I2" t="n">
         <v>675039.0377078714</v>
-      </c>
-      <c r="G2" t="n">
-        <v>675039.0377078719</v>
-      </c>
-      <c r="H2" t="n">
-        <v>675039.0377078719</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078718</v>
       </c>
       <c r="J2" t="n">
         <v>675039.0377078715</v>
       </c>
       <c r="K2" t="n">
-        <v>675039.0377078719</v>
+        <v>675039.0377078712</v>
       </c>
       <c r="L2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="M2" t="n">
+        <v>675039.0377078712</v>
+      </c>
+      <c r="N2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="O2" t="n">
         <v>675039.0377078714</v>
       </c>
-      <c r="M2" t="n">
-        <v>675039.0377078716</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="O2" t="n">
-        <v>675039.0377078712</v>
-      </c>
       <c r="P2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078713</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
@@ -26454,10 +26456,10 @@
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709199</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26500,16 +26502,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.0492857429</v>
+        <v>-167148.0492857424</v>
       </c>
       <c r="C6" t="n">
-        <v>422819.8299288015</v>
+        <v>422819.8299288017</v>
       </c>
       <c r="D6" t="n">
         <v>422819.8299288019</v>
@@ -26531,37 +26533,37 @@
         <v>-170341.5025363408</v>
       </c>
       <c r="F6" t="n">
+        <v>557035.9114570661</v>
+      </c>
+      <c r="G6" t="n">
+        <v>557035.9114570661</v>
+      </c>
+      <c r="H6" t="n">
+        <v>557035.9114570657</v>
+      </c>
+      <c r="I6" t="n">
         <v>557035.911457066</v>
       </c>
-      <c r="G6" t="n">
-        <v>557035.9114570664</v>
-      </c>
-      <c r="H6" t="n">
-        <v>557035.9114570664</v>
-      </c>
-      <c r="I6" t="n">
-        <v>557035.9114570663</v>
-      </c>
       <c r="J6" t="n">
-        <v>380612.6922644731</v>
+        <v>380612.6922644729</v>
       </c>
       <c r="K6" t="n">
-        <v>557035.9114570664</v>
+        <v>557035.9114570657</v>
       </c>
       <c r="L6" t="n">
+        <v>557035.9114570661</v>
+      </c>
+      <c r="M6" t="n">
+        <v>427393.5966181208</v>
+      </c>
+      <c r="N6" t="n">
+        <v>557035.9114570662</v>
+      </c>
+      <c r="O6" t="n">
         <v>557035.911457066</v>
       </c>
-      <c r="M6" t="n">
-        <v>427393.5966181215</v>
-      </c>
-      <c r="N6" t="n">
-        <v>557035.911457066</v>
-      </c>
-      <c r="O6" t="n">
-        <v>557035.9114570657</v>
-      </c>
       <c r="P6" t="n">
-        <v>557035.9114570662</v>
+        <v>557035.9114570671</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-1.119210344507062e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>248.6154749726216</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>146.2208734961078</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>85.81567617373906</v>
       </c>
       <c r="V4" t="n">
-        <v>88.69405058113881</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>65.6082846067429</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>226.087636137422</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>38.77899064747076</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>27.4158230437526</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>43.98398258378785</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>78.96706909488648</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.31357819661913</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.1320406209006</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
     </row>
     <row r="18">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31838,7 +31840,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31859,7 +31861,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33752,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.38101186168159</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844659</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953982</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003799</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362318</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.267349057498</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095009</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099045</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746402</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781681</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806932</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451117</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345271</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502562</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752242</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026434</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138787</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233539</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837913</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.708647897024</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238308</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.44815837589848</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.317151370202</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316427</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085996</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802165</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712198</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.2475727055303</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211228</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,22 +35412,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>559.0949758541251</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35507,7 +35509,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>622.853593723633</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>854.0890375411587</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35662,7 +35664,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>882.2223956904141</v>
+        <v>669.9074050305106</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
@@ -36130,13 +36132,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>700.7198463514513</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>713.9299079303029</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,13 +36366,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>943.4214150672658</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36598,16 +36600,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>741.2524215605639</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>737.1685649072117</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>538.7573355818255</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>794.1893959229033</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37084,10 +37086,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>456.4342306666093</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37312,22 +37314,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>834.4033276796241</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>737.2073682954009</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>472.8298519832966</v>
       </c>
       <c r="L38" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>798.7564048937555</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37561,10 +37563,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687119</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553994</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427812</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230578</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248941</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882178</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193706</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>384.0473624437537</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222427</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597668</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340045</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013355</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004581</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525795</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859616</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306597</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934833</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675395</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226393</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.95707114511</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789334</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3131750.900630897</v>
+        <v>3126029.288663014</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>281.98635364871</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -715,10 +715,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>181.5313849740271</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>99.34508049624272</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>200.4661980682387</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>390.4800487654386</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>123.153332579991</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.18663114486746</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>147.0518587030663</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>172.2570984134028</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>116.4814587683033</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589021</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.37452257140335</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>19.24672640396857</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>81.42785695279176</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>18.79983676747869</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>37.68696780390566</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>40.51264062004665</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.4179473152591</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.7576543181543</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>20.59954299565299</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>203.4068132192033</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>99.36052454570022</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.75345835954747</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>96.42228968410093</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>191.0957623616906</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292626</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247757</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734101046</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.3524204098382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>137.9722389061814</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913.7382812066351</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="C2" t="n">
-        <v>913.7382812066351</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>903.229563270145</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>492.2436584805375</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2063.943211507648</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>2063.943211507648</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>1690.477453246569</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="Y2" t="n">
-        <v>1300.338121270757</v>
+        <v>1289.017815868389</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1714.263756178945</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1245.141430890478</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>859.3531782922332</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>448.3672735026257</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977174</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1714.263756178945</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1714.263756178945</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1714.263756178945</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>196.757719530874</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>196.757719530874</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>196.757719530874</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>196.757719530874</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>196.757719530874</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>196.757719530874</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.00952757579</v>
+        <v>780.8554976894898</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353781</v>
+        <v>780.8554976894898</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353781</v>
+        <v>780.8554976894898</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353781</v>
+        <v>780.8554976894898</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>369.8695928998822</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>355.9461888384731</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
@@ -4837,19 +4837,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2304.517354885837</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.517354885837</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.748699615723</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X8" t="n">
-        <v>1951.748699615723</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.609367639912</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>171.6010209802668</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>171.6010209802668</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036444</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>210.9658229629848</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5044,19 +5044,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3641.993171584094</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5074,13 +5074,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,16 +5150,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.1104853224374</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C13" t="n">
-        <v>636.1104853224374</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D13" t="n">
-        <v>485.9938459101016</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5229,22 +5229,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.827124689058</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1420.142636483171</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1130.72546644621</v>
+        <v>889.8320163965544</v>
       </c>
       <c r="X13" t="n">
-        <v>902.7359155481931</v>
+        <v>889.8320163965544</v>
       </c>
       <c r="Y13" t="n">
-        <v>681.943336404663</v>
+        <v>889.8320163965544</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2649.230460361821</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.1920047000667</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>841.6225995718539</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>613.6330486738366</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.8404695303064</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867998</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2883.99303492678</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.7380053244393</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>706.4876447660638</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258583</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1198.376021052696</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1198.376021052696</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>970.386470154679</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>970.386470154679</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5755,25 +5755,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3644.341121778307</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C22" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>4207.432514129719</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>3952.748025923832</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W22" t="n">
-        <v>3663.330855886871</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X22" t="n">
-        <v>3644.341121778307</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y22" t="n">
-        <v>3644.341121778307</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2584.171204687567</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3130.95002174635</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>511.9395339702917</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>343.0033510423848</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1504.823322254687</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1250.1388340488</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>960.7216640118392</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>732.7321131138218</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>511.9395339702917</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6232,16 +6232,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.596327402151</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107236</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>657.5961351655762</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>657.5961351655762</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1100.959038351514</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1060.037179139346</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>839.244599995816</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089264</v>
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L29" t="n">
-        <v>1472.533259768727</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2006.065164440651</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2985.817436667298</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,7 +6572,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447819</v>
@@ -6581,7 +6581,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>706.4876447660638</v>
+        <v>781.8112129900694</v>
       </c>
       <c r="C31" t="n">
-        <v>706.4876447660638</v>
+        <v>612.8750300621625</v>
       </c>
       <c r="D31" t="n">
-        <v>556.371005353728</v>
+        <v>462.7583906498268</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,16 +6624,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W31" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.241807861857</v>
       </c>
       <c r="X31" t="n">
-        <v>909.2731541783409</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y31" t="n">
-        <v>706.4876447660638</v>
+        <v>963.4596778203091</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2536.15366264131</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3515.905934867957</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4018.878405747294</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>431.9845838435969</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>431.9845838435969</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>431.9845838435969</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>284.0714902612037</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>284.0714902612037</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>116.3686536359227</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6888,22 +6888,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>841.6225995718539</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>613.6330486738366</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>613.6330486738366</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
         <v>1106.569146563073</v>
@@ -6949,16 +6949,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3070.887536710053</v>
+        <v>2667.236715577529</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6967,22 +6967,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3794.457761190642</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>3625.521578262736</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T37" t="n">
-        <v>4586.365838246547</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>4297.262971372191</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>4196.898805164413</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>4196.898805164413</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>4196.898805164413</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>3976.106226020882</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,13 +7153,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7177,19 +7177,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>919.9473678912366</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1784.466183544591</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7213,7 +7213,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.5269503710301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1100.959038351514</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>872.9694874534971</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>652.176908309967</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>888.4135721382786</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.447785386687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>754.3196266559706</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C43" t="n">
-        <v>656.9233744498081</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D43" t="n">
-        <v>506.8067350374723</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E43" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7608,13 +7608,13 @@
         <v>1163.957642384228</v>
       </c>
       <c r="W43" t="n">
-        <v>1163.957642384228</v>
+        <v>970.9316197966614</v>
       </c>
       <c r="X43" t="n">
-        <v>935.9680914862104</v>
+        <v>742.942068898644</v>
       </c>
       <c r="Y43" t="n">
-        <v>935.9680914862104</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="44">
@@ -7627,73 +7627,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074192</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972645</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750618</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.328657580445</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.08092980709</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3944.053400686425</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4338.827767043603</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,64 +7703,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193578</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320222</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>637.1336314069202</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>637.1336314069202</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>487.0169919945845</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>339.1038984121914</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121914</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121914</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442057</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927013</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931526</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.657581931526</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1475.55471505717</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1336.188817172138</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1046.771647135177</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>818.78209623716</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>818.78209623716</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>160.3329896347532</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>161.8544041422916</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>148.4180109385399</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>404.500299237039</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,10 +9889,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>229.1155640189926</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>83.16722118949332</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,10 +10363,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>57.6722444472374</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225791999</v>
       </c>
       <c r="O35" t="n">
-        <v>229.1543674071818</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>135.6385654278961</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>103.7862464855144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.2530576400351</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.4574576105339</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>267.2762719326224</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>52.77216054947225</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>85.81896414583608</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>52.77216054947225</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.9098186215585</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>248.5248704017072</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>185.1970147689905</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>24.01601533131003</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.8269990339405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>124.1554719186678</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696585</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>152.7771187781278</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.07852182238983</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>70.8245314145269</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>95.42723597490036</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.9321526700475</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>114.1654044176466</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>735573.9104639814</v>
+        <v>735573.9104639816</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>735573.9104639814</v>
+        <v>735573.9104639816</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>735573.9104639817</v>
+        <v>735573.9104639816</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>735573.9104639816</v>
+        <v>735573.9104639814</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="F2" t="n">
+        <v>675039.0377078719</v>
+      </c>
+      <c r="G2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="H2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="I2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="J2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="K2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="L2" t="n">
         <v>675039.0377078713</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="N2" t="n">
+        <v>675039.0377078719</v>
+      </c>
+      <c r="O2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="G2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="H2" t="n">
-        <v>675039.0377078712</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="J2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="K2" t="n">
-        <v>675039.0377078712</v>
-      </c>
-      <c r="L2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="M2" t="n">
-        <v>675039.0377078712</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675039.0377078716</v>
-      </c>
-      <c r="O2" t="n">
-        <v>675039.0377078714</v>
-      </c>
       <c r="P2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078718</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.314838945</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709182</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21619.60799709182</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709199</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371361</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.0492857424</v>
+        <v>-167148.0492857425</v>
       </c>
       <c r="C6" t="n">
-        <v>422819.8299288017</v>
+        <v>422819.8299288016</v>
       </c>
       <c r="D6" t="n">
         <v>422819.8299288019</v>
       </c>
       <c r="E6" t="n">
-        <v>-170341.5025363408</v>
+        <v>-171013.4574385986</v>
       </c>
       <c r="F6" t="n">
-        <v>557035.9114570661</v>
+        <v>556363.9565548085</v>
       </c>
       <c r="G6" t="n">
-        <v>557035.9114570661</v>
+        <v>556363.9565548083</v>
       </c>
       <c r="H6" t="n">
-        <v>557035.9114570657</v>
+        <v>556363.9565548082</v>
       </c>
       <c r="I6" t="n">
-        <v>557035.911457066</v>
+        <v>556363.9565548082</v>
       </c>
       <c r="J6" t="n">
-        <v>380612.6922644729</v>
+        <v>379940.7373622155</v>
       </c>
       <c r="K6" t="n">
-        <v>557035.9114570657</v>
+        <v>556363.9565548082</v>
       </c>
       <c r="L6" t="n">
-        <v>557035.9114570661</v>
+        <v>556363.956554808</v>
       </c>
       <c r="M6" t="n">
-        <v>427393.5966181208</v>
+        <v>426721.641715863</v>
       </c>
       <c r="N6" t="n">
-        <v>557035.9114570662</v>
+        <v>556363.9565548087</v>
       </c>
       <c r="O6" t="n">
-        <v>557035.911457066</v>
+        <v>556363.9565548082</v>
       </c>
       <c r="P6" t="n">
-        <v>557035.9114570671</v>
+        <v>556363.9565548084</v>
       </c>
     </row>
   </sheetData>
@@ -26764,13 +26764,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545555</v>
@@ -26986,13 +26986,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.119210344507062e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>131.797816372085</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>146.2208734961078</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555243</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>85.81567617373906</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>23.30412125535639</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>226.087636137422</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>38.77899064747076</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>176.8709140612908</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>78.96706909488648</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>39.68943007349183</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.1320406209006</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-4.625246081245389e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-7.841652532768539e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.38101186168159</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844659</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953982</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003799</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.356529362318</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.267349057498</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095009</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099045</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746402</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781681</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806932</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451117</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345271</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502562</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752242</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026434</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138787</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233539</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837913</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897024</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238308</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.44815837589848</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.317151370202</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316427</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085996</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802165</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712198</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.2475727055303</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.39664015211228</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>559.0949758541251</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>854.0890375411587</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>669.9074050305106</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>700.7198463514513</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36360,25 +36360,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>943.4214150672658</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,10 +36609,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>737.1685649072117</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>538.7573355818255</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,10 +37083,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>456.4342306666093</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708315</v>
       </c>
       <c r="O35" t="n">
-        <v>737.2073682954009</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859626</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>472.8298519832966</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37782,22 +37782,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>440.9775330409149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687119</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865553994</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427812</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230578</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248941</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882178</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193706</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>384.0473624437537</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222427</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597668</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340045</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013355</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004581</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525795</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859616</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127266</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306597</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934833</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226393</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.95707114511</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789334</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3126029.288663014</v>
+        <v>3129434.779787462</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>281.98635364871</v>
+        <v>281.9863536487104</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>99.34508049624272</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>158.9420029854263</v>
       </c>
       <c r="G5" t="n">
-        <v>390.4800487654386</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>265.1428794587749</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>147.0518587030663</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>116.4814587683033</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>116.4814587683037</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>56.25802410840428</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>19.24672640396857</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2055,7 +2055,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>37.38100496017484</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2532,13 +2532,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095777</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.4179473152591</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>71.67037196991645</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3477,10 +3477,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>203.4068132192033</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>101.1471539705512</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>191.0957623616906</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>98.12640288586394</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.017815868389</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.017815868389</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>1289.017815868389</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="E2" t="n">
-        <v>903.229563270145</v>
+        <v>903.2295632701455</v>
       </c>
       <c r="F2" t="n">
-        <v>492.2436584805375</v>
+        <v>492.2436584805379</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,10 +4354,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.017815868389</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.017815868389</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4482,13 +4482,13 @@
         <v>336.2769833124028</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1603.407129497228</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C5" t="n">
-        <v>1603.407129497228</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="D5" t="n">
-        <v>1245.141430890478</v>
+        <v>1498.903216252386</v>
       </c>
       <c r="E5" t="n">
-        <v>859.3531782922332</v>
+        <v>1113.114963654142</v>
       </c>
       <c r="F5" t="n">
-        <v>448.3672735026257</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497228</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
         <v>667.8624625746712</v>
@@ -4710,67 +4710,67 @@
         <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>780.8554976894898</v>
+        <v>335.6874762441725</v>
       </c>
       <c r="C8" t="n">
-        <v>780.8554976894898</v>
+        <v>335.6874762441725</v>
       </c>
       <c r="D8" t="n">
-        <v>780.8554976894898</v>
+        <v>335.6874762441725</v>
       </c>
       <c r="E8" t="n">
-        <v>780.8554976894898</v>
+        <v>335.6874762441725</v>
       </c>
       <c r="F8" t="n">
-        <v>369.8695928998822</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>355.9461888384731</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628376</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284805</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014691</v>
+        <v>1485.892406545186</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.455337753612</v>
+        <v>722.2873163082943</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.4909684781771</v>
+        <v>318.4909684781776</v>
       </c>
       <c r="C10" t="n">
-        <v>318.4909684781771</v>
+        <v>318.4909684781776</v>
       </c>
       <c r="D10" t="n">
-        <v>318.4909684781771</v>
+        <v>318.4909684781776</v>
       </c>
       <c r="E10" t="n">
-        <v>318.4909684781771</v>
+        <v>318.4909684781776</v>
       </c>
       <c r="F10" t="n">
-        <v>171.6010209802668</v>
+        <v>171.6010209802672</v>
       </c>
       <c r="G10" t="n">
-        <v>171.6010209802668</v>
+        <v>171.6010209802672</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>171.6010209802672</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>500.1394333084173</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>500.1394333084173</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.1835515663147</v>
+        <v>912.4603716292689</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>743.524188701362</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>593.4075492890263</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>445.4944557066332</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>298.6045082087228</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>298.6045082087228</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>152.3873214265806</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W13" t="n">
-        <v>889.8320163965544</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="X13" t="n">
-        <v>889.8320163965544</v>
+        <v>1314.901415603039</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.8320163965544</v>
+        <v>1094.108836459509</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5515,46 +5515,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5703,16 +5703,16 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
         <v>498.0020784221642</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.1920047000667</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>133.3196253172579</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>133.3196253172579</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814702</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.039769608815</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W22" t="n">
-        <v>841.6225995718539</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X22" t="n">
-        <v>613.6330486738366</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.8404695303064</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6180,10 +6180,10 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
         <v>725.9916293201816</v>
@@ -6205,22 +6205,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6408,13 +6408,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
         <v>1270.093287563029</v>
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2949.638265046255</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807097</v>
+        <v>3496.417082105037</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3999.389552984374</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4394.163919341552</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.8112129900694</v>
+        <v>781.8112129900683</v>
       </c>
       <c r="C31" t="n">
-        <v>612.8750300621625</v>
+        <v>612.8750300621614</v>
       </c>
       <c r="D31" t="n">
-        <v>462.7583906498268</v>
+        <v>462.7583906498256</v>
       </c>
       <c r="E31" t="n">
-        <v>339.1038984121913</v>
+        <v>314.8452970674325</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>167.9553495695222</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,49 +6624,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898817</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.241807861857</v>
+        <v>1412.241807861855</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.252256963839</v>
+        <v>1184.252256963838</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.4596778203091</v>
+        <v>963.459677820308</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6718,34 +6718,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6937,28 +6937,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.236715577529</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7098,16 +7098,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7122,10 +7122,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
         <v>1270.093287563029</v>
@@ -7162,13 +7162,13 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7189,7 +7189,7 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7399,16 +7399,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7426,19 +7426,19 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.2936040684043</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C43" t="n">
-        <v>561.2936040684043</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D43" t="n">
-        <v>411.1769646560685</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>295.0555540245452</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>1163.957642384228</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W43" t="n">
-        <v>970.9316197966614</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X43" t="n">
-        <v>742.942068898644</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.942068898644</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,7 +7648,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7733,46 +7733,46 @@
         <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157131</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E46" t="n">
         <v>95.56103444839442</v>
@@ -7809,16 +7809,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230348</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894829</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459528</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719075</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,16 +10123,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400235</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>77.35795430877229</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>29.61882225791999</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>40.09439630143381</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>267.2762719326224</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>52.77216054947225</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>58.97141544966325</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.01601533131003</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911178</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.14213605696585</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>43.60786094376957</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>95.42723597490036</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.12041821276389</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>735573.9104639814</v>
+        <v>735573.9104639816</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>735573.9104639816</v>
+        <v>735573.9104639817</v>
       </c>
     </row>
     <row r="12">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>675039.0377078716</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078719</v>
+        <v>675039.0377078713</v>
       </c>
       <c r="G2" t="n">
         <v>675039.0377078716</v>
@@ -26334,25 +26334,25 @@
         <v>675039.0377078715</v>
       </c>
       <c r="I2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="J2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="J2" t="n">
-        <v>675039.0377078718</v>
-      </c>
       <c r="K2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078719</v>
       </c>
       <c r="L2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="M2" t="n">
         <v>675039.0377078714</v>
       </c>
       <c r="N2" t="n">
-        <v>675039.0377078719</v>
+        <v>675039.0377078716</v>
       </c>
       <c r="O2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="P2" t="n">
         <v>675039.0377078718</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.314838945</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709184</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
@@ -26444,19 +26444,19 @@
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709182</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709187</v>
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26527,43 +26527,43 @@
         <v>422819.8299288016</v>
       </c>
       <c r="D6" t="n">
-        <v>422819.8299288019</v>
+        <v>422819.8299288018</v>
       </c>
       <c r="E6" t="n">
-        <v>-171013.4574385986</v>
+        <v>-170408.6980265661</v>
       </c>
       <c r="F6" t="n">
-        <v>556363.9565548085</v>
+        <v>556968.71596684</v>
       </c>
       <c r="G6" t="n">
-        <v>556363.9565548083</v>
+        <v>556968.7159668404</v>
       </c>
       <c r="H6" t="n">
-        <v>556363.9565548082</v>
+        <v>556968.7159668403</v>
       </c>
       <c r="I6" t="n">
-        <v>556363.9565548082</v>
+        <v>556968.71596684</v>
       </c>
       <c r="J6" t="n">
-        <v>379940.7373622155</v>
+        <v>380545.4967742474</v>
       </c>
       <c r="K6" t="n">
-        <v>556363.9565548082</v>
+        <v>556968.7159668407</v>
       </c>
       <c r="L6" t="n">
-        <v>556363.956554808</v>
+        <v>556968.7159668402</v>
       </c>
       <c r="M6" t="n">
-        <v>426721.641715863</v>
+        <v>427326.4011278953</v>
       </c>
       <c r="N6" t="n">
-        <v>556363.9565548087</v>
+        <v>556968.7159668404</v>
       </c>
       <c r="O6" t="n">
-        <v>556363.9565548082</v>
+        <v>556968.7159668405</v>
       </c>
       <c r="P6" t="n">
-        <v>556363.9565548084</v>
+        <v>556968.7159668404</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26764,13 +26764,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,22 +26986,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>520.2256578503744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>520.2256578503748</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545553</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.797816372085</v>
+        <v>131.7978163720846</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>56.82580834555243</v>
+        <v>56.82580834555246</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>247.9340427562851</v>
       </c>
       <c r="G5" t="n">
-        <v>23.30412125535639</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>141.7331662829365</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>176.8709140612908</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>39.68943007349183</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>18.48416302403449</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28092,10 +28092,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.625246081245389e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-7.841652532768539e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32320,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32551,10 +32551,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32788,10 +32788,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343413</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,16 +35898,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,16 +36372,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230594</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282428</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>328.1522591124917</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>581.9206576708315</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
